--- a/REGULAR/ENRIQUEZ, EDGAR.xlsx
+++ b/REGULAR/ENRIQUEZ, EDGAR.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAFC038-6BCF-4324-A55B-72572FF50787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="254">
   <si>
     <t>PERIOD</t>
   </si>
@@ -786,12 +779,30 @@
   </si>
   <si>
     <t>7/27-29/2019</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>SUSPENSION</t>
+  </si>
+  <si>
+    <t>1/23-27/2023</t>
+  </si>
+  <si>
+    <t>10/17-21/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1022,7 +1033,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1167,6 +1178,15 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1203,54 +1223,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1323,6 +1300,43 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1658,7 +1672,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1701,7 +1715,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1765,7 +1779,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1825,7 +1839,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1891,7 +1905,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1954,7 +1968,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2052,7 +2066,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2111,7 +2125,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2176,7 +2190,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2219,7 +2233,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2294,7 +2308,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2480,7 +2494,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2546,7 +2560,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2604,7 +2618,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2670,7 +2684,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2726,7 +2740,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2801,7 +2815,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2844,7 +2858,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2910,7 +2924,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2966,7 +2980,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3064,7 +3078,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3127,7 +3141,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3193,25 +3207,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K439" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K494" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3223,13 +3237,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3238,14 +3252,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="3"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3549,7 +3563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3559,7 +3573,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3567,95 +3581,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K439"/>
+  <dimension ref="A2:K494"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="5055" topLeftCell="A432" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <pane ySplit="2976" topLeftCell="A452" activePane="bottomLeft"/>
       <selection activeCell="C7" sqref="C7:F7"/>
-      <selection pane="bottomLeft" activeCell="F442" sqref="F442"/>
+      <selection pane="bottomLeft" activeCell="C468" sqref="C468"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="57"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="59"/>
+      <c r="K4" s="60"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3663,7 +3677,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3676,24 +3690,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3728,7 +3742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3737,7 +3751,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>60.747000000000014</v>
+        <v>85.33099999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3747,12 +3761,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>254.25</v>
+        <v>293.83399999999995</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>42</v>
       </c>
@@ -3774,7 +3788,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>34666</v>
       </c>
@@ -3794,7 +3808,7 @@
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>34669</v>
       </c>
@@ -3814,7 +3828,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
         <v>43</v>
       </c>
@@ -3832,7 +3846,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <f>EDATE(A12,1)</f>
         <v>34700</v>
@@ -3853,7 +3867,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <f>EDATE(A14,1)</f>
         <v>34731</v>
@@ -3874,7 +3888,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <f t="shared" ref="A16:A23" si="0">EDATE(A15,1)</f>
         <v>34759</v>
@@ -3895,7 +3909,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>34790</v>
@@ -3916,7 +3930,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>34820</v>
@@ -3937,7 +3951,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>34851</v>
@@ -3958,7 +3972,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <f t="shared" si="0"/>
         <v>34881</v>
@@ -3979,7 +3993,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <f t="shared" si="0"/>
         <v>34912</v>
@@ -4000,7 +4014,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <f t="shared" si="0"/>
         <v>34943</v>
@@ -4021,7 +4035,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <f t="shared" si="0"/>
         <v>34973</v>
@@ -4042,7 +4056,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <f>EDATE(A23,1)</f>
         <v>35004</v>
@@ -4063,7 +4077,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <f>EDATE(A24,1)</f>
         <v>35034</v>
@@ -4088,7 +4102,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="47" t="s">
         <v>45</v>
       </c>
@@ -4106,7 +4120,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <f t="shared" ref="A27" si="1">EDATE(A25,1)</f>
         <v>35065</v>
@@ -4127,7 +4141,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f>EDATE(A27,1)</f>
         <v>35096</v>
@@ -4148,7 +4162,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <f t="shared" ref="A29:A92" si="2">EDATE(A28,1)</f>
         <v>35125</v>
@@ -4169,7 +4183,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <f t="shared" si="2"/>
         <v>35156</v>
@@ -4190,7 +4204,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <f t="shared" si="2"/>
         <v>35186</v>
@@ -4211,7 +4225,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <f t="shared" si="2"/>
         <v>35217</v>
@@ -4232,7 +4246,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f t="shared" si="2"/>
         <v>35247</v>
@@ -4253,7 +4267,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <f t="shared" si="2"/>
         <v>35278</v>
@@ -4274,7 +4288,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <f t="shared" si="2"/>
         <v>35309</v>
@@ -4295,7 +4309,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <f t="shared" si="2"/>
         <v>35339</v>
@@ -4316,7 +4330,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <f t="shared" si="2"/>
         <v>35370</v>
@@ -4337,7 +4351,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <f t="shared" si="2"/>
         <v>35400</v>
@@ -4362,7 +4376,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>46</v>
@@ -4382,7 +4396,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="47" t="s">
         <v>47</v>
       </c>
@@ -4400,7 +4414,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <f>EDATE(A38,1)</f>
         <v>35431</v>
@@ -4421,7 +4435,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f t="shared" si="2"/>
         <v>35462</v>
@@ -4444,7 +4458,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <f t="shared" si="2"/>
         <v>35490</v>
@@ -4465,7 +4479,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f t="shared" si="2"/>
         <v>35521</v>
@@ -4486,7 +4500,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <f t="shared" si="2"/>
         <v>35551</v>
@@ -4507,7 +4521,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f t="shared" si="2"/>
         <v>35582</v>
@@ -4528,7 +4542,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <f t="shared" si="2"/>
         <v>35612</v>
@@ -4549,7 +4563,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <f t="shared" si="2"/>
         <v>35643</v>
@@ -4570,7 +4584,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <f t="shared" si="2"/>
         <v>35674</v>
@@ -4591,7 +4605,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f t="shared" si="2"/>
         <v>35704</v>
@@ -4612,7 +4626,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <f t="shared" si="2"/>
         <v>35735</v>
@@ -4633,7 +4647,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f t="shared" si="2"/>
         <v>35765</v>
@@ -4658,7 +4672,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>44</v>
@@ -4678,7 +4692,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="47" t="s">
         <v>50</v>
       </c>
@@ -4696,7 +4710,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <f>EDATE(A52,1)</f>
         <v>35796</v>
@@ -4721,7 +4735,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <f t="shared" si="2"/>
         <v>35827</v>
@@ -4742,7 +4756,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <f t="shared" si="2"/>
         <v>35855</v>
@@ -4763,7 +4777,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f t="shared" si="2"/>
         <v>35886</v>
@@ -4790,7 +4804,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <f t="shared" si="2"/>
         <v>35916</v>
@@ -4811,7 +4825,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <f t="shared" si="2"/>
         <v>35947</v>
@@ -4832,7 +4846,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <f t="shared" si="2"/>
         <v>35977</v>
@@ -4853,7 +4867,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <f t="shared" si="2"/>
         <v>36008</v>
@@ -4874,7 +4888,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <f t="shared" si="2"/>
         <v>36039</v>
@@ -4895,7 +4909,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f t="shared" si="2"/>
         <v>36069</v>
@@ -4916,7 +4930,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <f t="shared" si="2"/>
         <v>36100</v>
@@ -4937,7 +4951,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <f t="shared" si="2"/>
         <v>36130</v>
@@ -4958,7 +4972,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="47" t="s">
         <v>53</v>
       </c>
@@ -4976,7 +4990,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f>EDATE(A66,1)</f>
         <v>36161</v>
@@ -4997,7 +5011,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <f t="shared" si="2"/>
         <v>36192</v>
@@ -5018,7 +5032,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <f t="shared" si="2"/>
         <v>36220</v>
@@ -5039,7 +5053,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <f t="shared" si="2"/>
         <v>36251</v>
@@ -5060,7 +5074,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <f t="shared" si="2"/>
         <v>36281</v>
@@ -5081,7 +5095,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <f t="shared" si="2"/>
         <v>36312</v>
@@ -5102,7 +5116,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <f t="shared" si="2"/>
         <v>36342</v>
@@ -5123,7 +5137,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <f t="shared" si="2"/>
         <v>36373</v>
@@ -5144,7 +5158,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <f t="shared" si="2"/>
         <v>36404</v>
@@ -5165,7 +5179,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <f t="shared" si="2"/>
         <v>36434</v>
@@ -5186,7 +5200,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <f t="shared" si="2"/>
         <v>36465</v>
@@ -5207,7 +5221,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <f t="shared" si="2"/>
         <v>36495</v>
@@ -5232,7 +5246,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="47" t="s">
         <v>54</v>
       </c>
@@ -5250,7 +5264,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <f>EDATE(A79,1)</f>
         <v>36526</v>
@@ -5271,7 +5285,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <f t="shared" si="2"/>
         <v>36557</v>
@@ -5292,7 +5306,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <f t="shared" si="2"/>
         <v>36586</v>
@@ -5313,7 +5327,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <f t="shared" si="2"/>
         <v>36617</v>
@@ -5334,7 +5348,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <f t="shared" si="2"/>
         <v>36647</v>
@@ -5355,7 +5369,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <f t="shared" si="2"/>
         <v>36678</v>
@@ -5376,7 +5390,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <f t="shared" si="2"/>
         <v>36708</v>
@@ -5397,7 +5411,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <f t="shared" si="2"/>
         <v>36739</v>
@@ -5418,7 +5432,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <f t="shared" si="2"/>
         <v>36770</v>
@@ -5439,7 +5453,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <f t="shared" si="2"/>
         <v>36800</v>
@@ -5460,7 +5474,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <f t="shared" si="2"/>
         <v>36831</v>
@@ -5487,7 +5501,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f t="shared" si="2"/>
         <v>36861</v>
@@ -5508,7 +5522,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="47" t="s">
         <v>56</v>
       </c>
@@ -5526,7 +5540,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <f>EDATE(A92,1)</f>
         <v>36892</v>
@@ -5547,7 +5561,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f t="shared" ref="A95:A158" si="3">EDATE(A94,1)</f>
         <v>36923</v>
@@ -5568,7 +5582,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f t="shared" si="3"/>
         <v>36951</v>
@@ -5589,7 +5603,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f t="shared" si="3"/>
         <v>36982</v>
@@ -5610,7 +5624,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <f t="shared" si="3"/>
         <v>37012</v>
@@ -5631,7 +5645,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <f t="shared" si="3"/>
         <v>37043</v>
@@ -5652,7 +5666,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <f t="shared" si="3"/>
         <v>37073</v>
@@ -5673,7 +5687,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <f t="shared" si="3"/>
         <v>37104</v>
@@ -5698,7 +5712,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <f t="shared" si="3"/>
         <v>37135</v>
@@ -5719,7 +5733,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <f t="shared" si="3"/>
         <v>37165</v>
@@ -5740,7 +5754,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <f t="shared" si="3"/>
         <v>37196</v>
@@ -5761,7 +5775,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <f t="shared" si="3"/>
         <v>37226</v>
@@ -5786,7 +5800,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="47" t="s">
         <v>58</v>
       </c>
@@ -5804,7 +5818,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <f>EDATE(A105,1)</f>
         <v>37257</v>
@@ -5831,7 +5845,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <f t="shared" si="3"/>
         <v>37288</v>
@@ -5852,7 +5866,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <f t="shared" si="3"/>
         <v>37316</v>
@@ -5873,7 +5887,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <f t="shared" si="3"/>
         <v>37347</v>
@@ -5900,7 +5914,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <f t="shared" si="3"/>
         <v>37377</v>
@@ -5921,7 +5935,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <f t="shared" si="3"/>
         <v>37408</v>
@@ -5942,7 +5956,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f t="shared" si="3"/>
         <v>37438</v>
@@ -5967,7 +5981,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <f t="shared" si="3"/>
         <v>37469</v>
@@ -5988,7 +6002,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <f t="shared" si="3"/>
         <v>37500</v>
@@ -6009,7 +6023,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <f t="shared" si="3"/>
         <v>37530</v>
@@ -6030,7 +6044,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <f t="shared" si="3"/>
         <v>37561</v>
@@ -6051,7 +6065,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <f t="shared" si="3"/>
         <v>37591</v>
@@ -6076,7 +6090,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="47" t="s">
         <v>62</v>
       </c>
@@ -6094,7 +6108,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <f>EDATE(A118,1)</f>
         <v>37622</v>
@@ -6115,7 +6129,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <f t="shared" si="3"/>
         <v>37653</v>
@@ -6136,7 +6150,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f t="shared" si="3"/>
         <v>37681</v>
@@ -6157,7 +6171,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <f t="shared" si="3"/>
         <v>37712</v>
@@ -6178,7 +6192,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f t="shared" si="3"/>
         <v>37742</v>
@@ -6199,7 +6213,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <f t="shared" si="3"/>
         <v>37773</v>
@@ -6220,7 +6234,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f t="shared" si="3"/>
         <v>37803</v>
@@ -6247,7 +6261,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f t="shared" si="3"/>
         <v>37834</v>
@@ -6268,7 +6282,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <f t="shared" si="3"/>
         <v>37865</v>
@@ -6289,7 +6303,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <f t="shared" si="3"/>
         <v>37895</v>
@@ -6310,7 +6324,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <f t="shared" si="3"/>
         <v>37926</v>
@@ -6331,7 +6345,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <f t="shared" si="3"/>
         <v>37956</v>
@@ -6356,7 +6370,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="47" t="s">
         <v>63</v>
       </c>
@@ -6374,7 +6388,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <f>EDATE(A131,1)</f>
         <v>37987</v>
@@ -6395,7 +6409,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <f t="shared" si="3"/>
         <v>38018</v>
@@ -6416,7 +6430,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <f t="shared" si="3"/>
         <v>38047</v>
@@ -6437,7 +6451,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <f t="shared" si="3"/>
         <v>38078</v>
@@ -6458,7 +6472,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <f t="shared" si="3"/>
         <v>38108</v>
@@ -6479,7 +6493,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <f t="shared" si="3"/>
         <v>38139</v>
@@ -6500,7 +6514,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <f t="shared" si="3"/>
         <v>38169</v>
@@ -6525,7 +6539,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <f t="shared" si="3"/>
         <v>38200</v>
@@ -6550,7 +6564,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <f t="shared" si="3"/>
         <v>38231</v>
@@ -6575,7 +6589,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f t="shared" si="3"/>
         <v>38261</v>
@@ -6600,7 +6614,7 @@
       <c r="J142" s="12"/>
       <c r="K142" s="15"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <f t="shared" si="3"/>
         <v>38292</v>
@@ -6625,7 +6639,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f t="shared" si="3"/>
         <v>38322</v>
@@ -6650,7 +6664,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>44</v>
@@ -6670,7 +6684,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="47" t="s">
         <v>69</v>
       </c>
@@ -6688,7 +6702,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <f>EDATE(A144,1)</f>
         <v>38353</v>
@@ -6713,7 +6727,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f t="shared" si="3"/>
         <v>38384</v>
@@ -6738,7 +6752,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>71</v>
@@ -6758,7 +6772,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <f>EDATE(A148,1)</f>
         <v>38412</v>
@@ -6783,7 +6797,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f t="shared" si="3"/>
         <v>38443</v>
@@ -6810,7 +6824,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>73</v>
@@ -6830,7 +6844,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <f>EDATE(A151,1)</f>
         <v>38473</v>
@@ -6855,7 +6869,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f t="shared" si="3"/>
         <v>38504</v>
@@ -6880,7 +6894,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <f t="shared" si="3"/>
         <v>38534</v>
@@ -6905,7 +6919,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <f t="shared" si="3"/>
         <v>38565</v>
@@ -6930,7 +6944,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <f t="shared" si="3"/>
         <v>38596</v>
@@ -6955,7 +6969,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <f t="shared" si="3"/>
         <v>38626</v>
@@ -6980,7 +6994,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <f t="shared" ref="A159:A220" si="4">EDATE(A158,1)</f>
         <v>38657</v>
@@ -7005,7 +7019,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <f t="shared" si="4"/>
         <v>38687</v>
@@ -7030,7 +7044,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="47" t="s">
         <v>82</v>
       </c>
@@ -7048,7 +7062,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <f>EDATE(A160,1)</f>
         <v>38718</v>
@@ -7073,7 +7087,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <f t="shared" si="4"/>
         <v>38749</v>
@@ -7094,7 +7108,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <f t="shared" si="4"/>
         <v>38777</v>
@@ -7115,7 +7129,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <f t="shared" si="4"/>
         <v>38808</v>
@@ -7136,7 +7150,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <f t="shared" si="4"/>
         <v>38838</v>
@@ -7157,7 +7171,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <f t="shared" si="4"/>
         <v>38869</v>
@@ -7178,7 +7192,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <f t="shared" si="4"/>
         <v>38899</v>
@@ -7199,7 +7213,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <f t="shared" si="4"/>
         <v>38930</v>
@@ -7220,7 +7234,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <f t="shared" si="4"/>
         <v>38961</v>
@@ -7241,7 +7255,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <f t="shared" si="4"/>
         <v>38991</v>
@@ -7262,7 +7276,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <f t="shared" si="4"/>
         <v>39022</v>
@@ -7283,7 +7297,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <f t="shared" si="4"/>
         <v>39052</v>
@@ -7308,7 +7322,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="47" t="s">
         <v>84</v>
       </c>
@@ -7326,7 +7340,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <f>EDATE(A173,1)</f>
         <v>39083</v>
@@ -7347,7 +7361,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <f t="shared" si="4"/>
         <v>39114</v>
@@ -7368,7 +7382,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <f t="shared" si="4"/>
         <v>39142</v>
@@ -7389,7 +7403,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <f t="shared" si="4"/>
         <v>39173</v>
@@ -7410,7 +7424,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <f t="shared" si="4"/>
         <v>39203</v>
@@ -7431,7 +7445,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <f t="shared" si="4"/>
         <v>39234</v>
@@ -7452,7 +7466,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <f t="shared" si="4"/>
         <v>39264</v>
@@ -7473,7 +7487,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <f t="shared" si="4"/>
         <v>39295</v>
@@ -7494,7 +7508,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f t="shared" si="4"/>
         <v>39326</v>
@@ -7515,7 +7529,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <f t="shared" si="4"/>
         <v>39356</v>
@@ -7536,7 +7550,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <f t="shared" si="4"/>
         <v>39387</v>
@@ -7557,7 +7571,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <f t="shared" si="4"/>
         <v>39417</v>
@@ -7582,7 +7596,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="47" t="s">
         <v>85</v>
       </c>
@@ -7600,7 +7614,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <f>EDATE(A186,1)</f>
         <v>39448</v>
@@ -7621,7 +7635,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <f t="shared" si="4"/>
         <v>39479</v>
@@ -7642,7 +7656,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <f t="shared" si="4"/>
         <v>39508</v>
@@ -7663,7 +7677,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <f t="shared" si="4"/>
         <v>39539</v>
@@ -7684,7 +7698,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <f t="shared" si="4"/>
         <v>39569</v>
@@ -7705,7 +7719,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <f t="shared" si="4"/>
         <v>39600</v>
@@ -7730,7 +7744,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <f t="shared" si="4"/>
         <v>39630</v>
@@ -7755,7 +7769,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <f t="shared" si="4"/>
         <v>39661</v>
@@ -7782,7 +7796,7 @@
         <v>39661</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>61</v>
@@ -7804,7 +7818,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>89</v>
@@ -7824,7 +7838,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <f>EDATE(A195,1)</f>
         <v>39692</v>
@@ -7849,7 +7863,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <f t="shared" si="4"/>
         <v>39722</v>
@@ -7874,7 +7888,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <f t="shared" si="4"/>
         <v>39753</v>
@@ -7899,7 +7913,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <f t="shared" si="4"/>
         <v>39783</v>
@@ -7924,7 +7938,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>93</v>
@@ -7944,7 +7958,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="47" t="s">
         <v>94</v>
       </c>
@@ -7962,7 +7976,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <f>EDATE(A201,1)</f>
         <v>39814</v>
@@ -7987,7 +8001,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <f t="shared" si="4"/>
         <v>39845</v>
@@ -8012,7 +8026,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <f t="shared" si="4"/>
         <v>39873</v>
@@ -8039,7 +8053,7 @@
         <v>39891</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>97</v>
@@ -8059,7 +8073,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="48"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <f>EDATE(A206,1)</f>
         <v>39904</v>
@@ -8086,7 +8100,7 @@
         <v>39916</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>98</v>
@@ -8106,7 +8120,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="48"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <f>EDATE(A208,1)</f>
         <v>39934</v>
@@ -8133,7 +8147,7 @@
         <v>39951</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>99</v>
@@ -8153,7 +8167,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="48"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <f>EDATE(A210,1)</f>
         <v>39965</v>
@@ -8180,7 +8194,7 @@
         <v>39989</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>100</v>
@@ -8200,7 +8214,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="48"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <f>EDATE(A212,1)</f>
         <v>39995</v>
@@ -8227,7 +8241,7 @@
         <v>40018</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>101</v>
@@ -8247,7 +8261,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="48"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <f>EDATE(A214,1)</f>
         <v>40026</v>
@@ -8272,7 +8286,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <f t="shared" si="4"/>
         <v>40057</v>
@@ -8299,7 +8313,7 @@
         <v>40084</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <f t="shared" si="4"/>
         <v>40087</v>
@@ -8324,7 +8338,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <f t="shared" si="4"/>
         <v>40118</v>
@@ -8349,7 +8363,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f t="shared" si="4"/>
         <v>40148</v>
@@ -8374,7 +8388,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>107</v>
@@ -8394,7 +8408,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="47" t="s">
         <v>108</v>
       </c>
@@ -8412,7 +8426,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <f>EDATE(A220,1)</f>
         <v>40179</v>
@@ -8439,7 +8453,7 @@
         <v>40186</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <f t="shared" ref="A224:A250" si="5">EDATE(A223,1)</f>
         <v>40210</v>
@@ -8464,7 +8478,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>110</v>
@@ -8484,7 +8498,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <f>EDATE(A224,1)</f>
         <v>40238</v>
@@ -8511,7 +8525,7 @@
         <v>40242</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>88</v>
@@ -8533,7 +8547,7 @@
         <v>40256</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>111</v>
@@ -8553,7 +8567,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="48"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <f>EDATE(A226,1)</f>
         <v>40269</v>
@@ -8578,7 +8592,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>112</v>
@@ -8598,7 +8612,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <f>EDATE(A229,1)</f>
         <v>40299</v>
@@ -8625,7 +8639,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>88</v>
@@ -8647,7 +8661,7 @@
         <v>40329</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>99</v>
@@ -8667,7 +8681,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="48"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <f>EDATE(A231,1)</f>
         <v>40330</v>
@@ -8692,7 +8706,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <f t="shared" si="5"/>
         <v>40360</v>
@@ -8717,7 +8731,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <f t="shared" si="5"/>
         <v>40391</v>
@@ -8744,7 +8758,7 @@
         <v>40395</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>114</v>
@@ -8764,7 +8778,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="48"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <f>EDATE(A236,1)</f>
         <v>40422</v>
@@ -8791,7 +8805,7 @@
         <v>40449</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>115</v>
@@ -8811,7 +8825,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="48"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <f>EDATE(A238,1)</f>
         <v>40452</v>
@@ -8838,7 +8852,7 @@
         <v>40470</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>116</v>
@@ -8858,7 +8872,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="48"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <f>EDATE(A240,1)</f>
         <v>40483</v>
@@ -8885,7 +8899,7 @@
         <v>40484</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>103</v>
@@ -8907,7 +8921,7 @@
         <v>40507</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>117</v>
@@ -8927,7 +8941,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="48"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <f>EDATE(A242,1)</f>
         <v>40513</v>
@@ -8952,7 +8966,7 @@
         <v>40542</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>88</v>
@@ -8972,7 +8986,7 @@
         <v>40518</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>118</v>
@@ -8992,7 +9006,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="47" t="s">
         <v>119</v>
       </c>
@@ -9010,7 +9024,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <f>EDATE(A245,1)</f>
         <v>40544</v>
@@ -9035,7 +9049,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <f t="shared" si="5"/>
         <v>40575</v>
@@ -9062,7 +9076,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>121</v>
@@ -9082,7 +9096,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="48"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <f>EDATE(A250,1)</f>
         <v>40603</v>
@@ -9109,7 +9123,7 @@
         <v>40620</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>122</v>
@@ -9129,7 +9143,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="48"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <f>EDATE(A252,1)</f>
         <v>40634</v>
@@ -9156,7 +9170,7 @@
         <v>40645</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>88</v>
@@ -9178,7 +9192,7 @@
         <v>40660</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <f>EDATE(A254,1)</f>
         <v>40664</v>
@@ -9205,7 +9219,7 @@
         <v>40665</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>88</v>
@@ -9227,7 +9241,7 @@
         <v>40673</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>88</v>
@@ -9249,7 +9263,7 @@
         <v>40695</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>123</v>
@@ -9267,7 +9281,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="48"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <f>EDATE(A256,1)</f>
         <v>40695</v>
@@ -9294,7 +9308,7 @@
         <v>40703</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>88</v>
@@ -9316,7 +9330,7 @@
         <v>40723</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>124</v>
@@ -9336,7 +9350,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="48"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <f>EDATE(A260,1)</f>
         <v>40725</v>
@@ -9363,7 +9377,7 @@
         <v>40732</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>125</v>
@@ -9383,7 +9397,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="48"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <f>EDATE(A263,1)</f>
         <v>40756</v>
@@ -9410,7 +9424,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>127</v>
@@ -9430,7 +9444,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <f>EDATE(A265,1)</f>
         <v>40787</v>
@@ -9455,7 +9469,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <f t="shared" ref="A268:A294" si="6">EDATE(A267,1)</f>
         <v>40817</v>
@@ -9482,7 +9496,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>88</v>
@@ -9504,7 +9518,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>129</v>
@@ -9524,7 +9538,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="49"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <f>EDATE(A268,1)</f>
         <v>40848</v>
@@ -9549,7 +9563,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f t="shared" si="6"/>
         <v>40878</v>
@@ -9574,7 +9588,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="47" t="s">
         <v>132</v>
       </c>
@@ -9592,7 +9606,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <f>EDATE(A272,1)</f>
         <v>40909</v>
@@ -9619,7 +9633,7 @@
         <v>40910</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>83</v>
@@ -9639,7 +9653,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>133</v>
@@ -9659,7 +9673,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="48"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <f>EDATE(A274,1)</f>
         <v>40940</v>
@@ -9686,7 +9700,7 @@
         <v>40948</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>88</v>
@@ -9708,7 +9722,7 @@
         <v>40959</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>134</v>
@@ -9728,7 +9742,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="48"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <f>EDATE(A277,1)</f>
         <v>40969</v>
@@ -9755,7 +9769,7 @@
         <v>40987</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>135</v>
@@ -9775,7 +9789,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="48"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <f>EDATE(A280,1)</f>
         <v>41000</v>
@@ -9802,7 +9816,7 @@
         <v>41002</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>126</v>
@@ -9824,7 +9838,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>136</v>
@@ -9844,7 +9858,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="48"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <f>EDATE(A282,1)</f>
         <v>41030</v>
@@ -9869,7 +9883,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <f t="shared" si="6"/>
         <v>41061</v>
@@ -9894,7 +9908,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>138</v>
@@ -9914,7 +9928,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <f>EDATE(A286,1)</f>
         <v>41091</v>
@@ -9939,7 +9953,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <f t="shared" si="6"/>
         <v>41122</v>
@@ -9964,7 +9978,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <f t="shared" si="6"/>
         <v>41153</v>
@@ -9991,7 +10005,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>141</v>
@@ -10011,7 +10025,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <f>EDATE(A290,1)</f>
         <v>41183</v>
@@ -10036,7 +10050,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <f t="shared" si="6"/>
         <v>41214</v>
@@ -10061,7 +10075,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <f t="shared" si="6"/>
         <v>41244</v>
@@ -10088,7 +10102,7 @@
         <v>41248</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>88</v>
@@ -10110,7 +10124,7 @@
         <v>41241</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>126</v>
@@ -10132,7 +10146,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>144</v>
@@ -10152,7 +10166,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="47" t="s">
         <v>145</v>
       </c>
@@ -10170,7 +10184,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <f>EDATE(A294,1)</f>
         <v>41275</v>
@@ -10197,7 +10211,7 @@
         <v>41291</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>146</v>
@@ -10217,7 +10231,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="48"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <f>EDATE(A299,1)</f>
         <v>41306</v>
@@ -10242,7 +10256,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <f t="shared" ref="A302:A392" si="7">EDATE(A301,1)</f>
         <v>41334</v>
@@ -10269,7 +10283,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>88</v>
@@ -10291,7 +10305,7 @@
         <v>41365</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>148</v>
@@ -10311,7 +10325,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <f>EDATE(A302,1)</f>
         <v>41365</v>
@@ -10338,7 +10352,7 @@
         <v>41389</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>149</v>
@@ -10360,7 +10374,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>150</v>
@@ -10380,7 +10394,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="48"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <f>EDATE(A305,1)</f>
         <v>41395</v>
@@ -10407,7 +10421,7 @@
         <v>41424</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>88</v>
@@ -10429,7 +10443,7 @@
         <v>41418</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>151</v>
@@ -10449,7 +10463,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="48"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <f>EDATE(A308,1)</f>
         <v>41426</v>
@@ -10474,7 +10488,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <f t="shared" si="7"/>
         <v>41456</v>
@@ -10499,7 +10513,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <f t="shared" si="7"/>
         <v>41487</v>
@@ -10524,7 +10538,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <f t="shared" si="7"/>
         <v>41518</v>
@@ -10549,7 +10563,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <f t="shared" si="7"/>
         <v>41548</v>
@@ -10574,7 +10588,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>88</v>
@@ -10596,7 +10610,7 @@
         <v>41599</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <f>EDATE(A315,1)</f>
         <v>41579</v>
@@ -10623,7 +10637,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>157</v>
@@ -10643,7 +10657,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <f>EDATE(A317,1)</f>
         <v>41609</v>
@@ -10666,7 +10680,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="47" t="s">
         <v>159</v>
       </c>
@@ -10684,7 +10698,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <f>EDATE(A319,1)</f>
         <v>41640</v>
@@ -10709,7 +10723,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <f t="shared" si="7"/>
         <v>41671</v>
@@ -10736,7 +10750,7 @@
         <v>41676</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>88</v>
@@ -10758,7 +10772,7 @@
         <v>41688</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>190</v>
@@ -10778,7 +10792,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="48"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <f>EDATE(A322,1)</f>
         <v>41699</v>
@@ -10805,7 +10819,7 @@
         <v>41712</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>59</v>
@@ -10827,7 +10841,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>192</v>
@@ -10847,7 +10861,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <f>EDATE(A325,1)</f>
         <v>41730</v>
@@ -10872,7 +10886,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>61</v>
@@ -10894,7 +10908,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <f>EDATE(A328,1)</f>
         <v>41760</v>
@@ -10921,7 +10935,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>195</v>
@@ -10941,7 +10955,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>52</v>
@@ -10963,7 +10977,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>198</v>
@@ -10983,7 +10997,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <f>EDATE(A330,1)</f>
         <v>41791</v>
@@ -11008,7 +11022,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <f t="shared" si="7"/>
         <v>41821</v>
@@ -11033,7 +11047,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <f t="shared" si="7"/>
         <v>41852</v>
@@ -11060,7 +11074,7 @@
         <v>41856</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>88</v>
@@ -11082,7 +11096,7 @@
         <v>41865</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>112</v>
@@ -11102,7 +11116,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="48"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <f>EDATE(A336,1)</f>
         <v>41883</v>
@@ -11129,7 +11143,7 @@
         <v>41911</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>201</v>
@@ -11149,7 +11163,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="48"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <f>EDATE(A339,1)</f>
         <v>41913</v>
@@ -11174,7 +11188,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <f t="shared" si="7"/>
         <v>41944</v>
@@ -11199,7 +11213,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <f t="shared" si="7"/>
         <v>41974</v>
@@ -11226,7 +11240,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>205</v>
@@ -11246,7 +11260,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="47" t="s">
         <v>160</v>
       </c>
@@ -11264,7 +11278,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <f>EDATE(A343,1)</f>
         <v>42005</v>
@@ -11289,7 +11303,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <f t="shared" si="7"/>
         <v>42036</v>
@@ -11314,7 +11328,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>114</v>
@@ -11334,7 +11348,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <f>EDATE(A347,1)</f>
         <v>42064</v>
@@ -11361,7 +11375,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>211</v>
@@ -11381,7 +11395,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <f>EDATE(A349,1)</f>
         <v>42095</v>
@@ -11408,7 +11422,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>88</v>
@@ -11430,7 +11444,7 @@
         <v>42124</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>213</v>
@@ -11450,7 +11464,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="48"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <f>EDATE(A351,1)</f>
         <v>42125</v>
@@ -11477,7 +11491,7 @@
         <v>42153</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>214</v>
@@ -11497,7 +11511,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="48"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <f>EDATE(A354,1)</f>
         <v>42156</v>
@@ -11522,7 +11536,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <f t="shared" si="7"/>
         <v>42186</v>
@@ -11549,7 +11563,7 @@
         <v>42209</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>216</v>
@@ -11569,7 +11583,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="48"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <f>EDATE(A357,1)</f>
         <v>42217</v>
@@ -11596,7 +11610,7 @@
         <v>42220</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>217</v>
@@ -11616,7 +11630,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="48"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <f>EDATE(A359,1)</f>
         <v>42248</v>
@@ -11641,7 +11655,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <f t="shared" si="7"/>
         <v>42278</v>
@@ -11668,7 +11682,7 @@
         <v>42279</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>219</v>
@@ -11688,7 +11702,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="48"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <f>EDATE(A362,1)</f>
         <v>42309</v>
@@ -11713,7 +11727,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <f t="shared" si="7"/>
         <v>42339</v>
@@ -11738,7 +11752,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>221</v>
@@ -11758,7 +11772,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="47" t="s">
         <v>161</v>
       </c>
@@ -11776,7 +11790,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <f>EDATE(A365,1)</f>
         <v>42370</v>
@@ -11797,7 +11811,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <f t="shared" si="7"/>
         <v>42401</v>
@@ -11818,7 +11832,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <f t="shared" si="7"/>
         <v>42430</v>
@@ -11845,7 +11859,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>83</v>
@@ -11865,7 +11879,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <f>EDATE(A370,1)</f>
         <v>42461</v>
@@ -11892,7 +11906,7 @@
         <v>42467</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>88</v>
@@ -11914,7 +11928,7 @@
         <v>42478</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>88</v>
@@ -11936,7 +11950,7 @@
         <v>42492</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <f>EDATE(A372,1)</f>
         <v>42491</v>
@@ -11957,7 +11971,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <f t="shared" si="7"/>
         <v>42522</v>
@@ -11978,7 +11992,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <f t="shared" si="7"/>
         <v>42552</v>
@@ -12005,7 +12019,7 @@
         <v>42562</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <f t="shared" si="7"/>
         <v>42583</v>
@@ -12032,7 +12046,7 @@
         <v>42590</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <f t="shared" si="7"/>
         <v>42614</v>
@@ -12053,7 +12067,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <f t="shared" si="7"/>
         <v>42644</v>
@@ -12080,7 +12094,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>88</v>
@@ -12102,7 +12116,7 @@
         <v>42669</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <f>EDATE(A380,1)</f>
         <v>42675</v>
@@ -12123,7 +12137,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <f t="shared" si="7"/>
         <v>42705</v>
@@ -12148,7 +12162,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="47" t="s">
         <v>162</v>
       </c>
@@ -12166,7 +12180,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <f>EDATE(A383,1)</f>
         <v>42736</v>
@@ -12193,7 +12207,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <f t="shared" si="7"/>
         <v>42767</v>
@@ -12214,7 +12228,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <f t="shared" si="7"/>
         <v>42795</v>
@@ -12235,7 +12249,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <f t="shared" si="7"/>
         <v>42826</v>
@@ -12262,7 +12276,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>88</v>
@@ -12284,7 +12298,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>88</v>
@@ -12306,7 +12320,7 @@
         <v>42865</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <f>EDATE(A388,1)</f>
         <v>42856</v>
@@ -12327,7 +12341,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <f t="shared" si="7"/>
         <v>42887</v>
@@ -12348,7 +12362,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <f t="shared" ref="A393:A438" si="8">EDATE(A392,1)</f>
         <v>42917</v>
@@ -12369,7 +12383,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <f t="shared" si="8"/>
         <v>42948</v>
@@ -12396,7 +12410,7 @@
         <v>42958</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <f t="shared" si="8"/>
         <v>42979</v>
@@ -12423,7 +12437,7 @@
         <v>43014</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>228</v>
@@ -12445,7 +12459,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <f>EDATE(A395,1)</f>
         <v>43009</v>
@@ -12466,7 +12480,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <f t="shared" si="8"/>
         <v>43040</v>
@@ -12487,7 +12501,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <f t="shared" si="8"/>
         <v>43070</v>
@@ -12512,7 +12526,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="47" t="s">
         <v>163</v>
       </c>
@@ -12530,7 +12544,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <f>EDATE(A399,1)</f>
         <v>43101</v>
@@ -12551,7 +12565,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <f t="shared" si="8"/>
         <v>43132</v>
@@ -12576,7 +12590,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>83</v>
@@ -12596,7 +12610,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>83</v>
@@ -12616,7 +12630,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <f>EDATE(A402,1)</f>
         <v>43160</v>
@@ -12637,7 +12651,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <f t="shared" si="8"/>
         <v>43191</v>
@@ -12664,7 +12678,7 @@
         <v>43192</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>55</v>
@@ -12686,7 +12700,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <f>EDATE(A406,1)</f>
         <v>43221</v>
@@ -12711,7 +12725,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <f t="shared" si="8"/>
         <v>43252</v>
@@ -12736,7 +12750,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <f t="shared" si="8"/>
         <v>43282</v>
@@ -12763,7 +12777,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>88</v>
@@ -12785,7 +12799,7 @@
         <v>43326</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>143</v>
@@ -12805,7 +12819,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="48"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <f>EDATE(A410,1)</f>
         <v>43313</v>
@@ -12830,7 +12844,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <f t="shared" si="8"/>
         <v>43344</v>
@@ -12855,7 +12869,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <f t="shared" si="8"/>
         <v>43374</v>
@@ -12880,7 +12894,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <f t="shared" si="8"/>
         <v>43405</v>
@@ -12905,7 +12919,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <f t="shared" si="8"/>
         <v>43435</v>
@@ -12930,7 +12944,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="47" t="s">
         <v>164</v>
       </c>
@@ -12948,7 +12962,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <f>EDATE(A417,1)</f>
         <v>43466</v>
@@ -12969,7 +12983,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <f t="shared" si="8"/>
         <v>43497</v>
@@ -12990,7 +13004,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <f t="shared" si="8"/>
         <v>43525</v>
@@ -13011,7 +13025,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <f t="shared" si="8"/>
         <v>43556</v>
@@ -13038,7 +13052,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <f t="shared" si="8"/>
         <v>43586</v>
@@ -13059,7 +13073,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <f t="shared" si="8"/>
         <v>43617</v>
@@ -13080,7 +13094,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <f t="shared" si="8"/>
         <v>43647</v>
@@ -13101,7 +13115,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <f t="shared" si="8"/>
         <v>43678</v>
@@ -13128,7 +13142,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <f t="shared" si="8"/>
         <v>43709</v>
@@ -13155,7 +13169,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <f t="shared" si="8"/>
         <v>43739</v>
@@ -13182,7 +13196,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <f t="shared" si="8"/>
         <v>43770</v>
@@ -13203,7 +13217,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <f t="shared" si="8"/>
         <v>43800</v>
@@ -13228,7 +13242,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="47" t="s">
         <v>165</v>
       </c>
@@ -13246,7 +13260,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <f>EDATE(A430,1)</f>
         <v>43831</v>
@@ -13267,7 +13281,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <f t="shared" si="8"/>
         <v>43862</v>
@@ -13288,7 +13302,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <f t="shared" si="8"/>
         <v>43891</v>
@@ -13315,7 +13329,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <f t="shared" si="8"/>
         <v>43922</v>
@@ -13336,7 +13350,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <f t="shared" si="8"/>
         <v>43952</v>
@@ -13357,7 +13371,7 @@
       <c r="J436" s="9"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <f t="shared" si="8"/>
         <v>43983</v>
@@ -13378,7 +13392,7 @@
       <c r="J437" s="9"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <f t="shared" si="8"/>
         <v>44013</v>
@@ -13405,21 +13419,1101 @@
         <v>247</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A439" s="62"/>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A439" s="50">
+        <v>44044</v>
+      </c>
       <c r="B439" s="15"/>
-      <c r="C439" s="41"/>
+      <c r="C439" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D439" s="42"/>
-      <c r="E439" s="63"/>
+      <c r="E439" s="51"/>
       <c r="F439" s="15"/>
-      <c r="G439" s="41" t="str">
+      <c r="G439" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H439" s="42"/>
+      <c r="I439" s="51"/>
+      <c r="J439" s="51"/>
+      <c r="K439" s="15"/>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A440" s="50">
+        <v>44075</v>
+      </c>
+      <c r="B440" s="20"/>
+      <c r="C440" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D440" s="39"/>
+      <c r="E440" s="9"/>
+      <c r="F440" s="20"/>
+      <c r="G440" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H440" s="39"/>
+      <c r="I440" s="9"/>
+      <c r="J440" s="9"/>
+      <c r="K440" s="20"/>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A441" s="50">
+        <v>44105</v>
+      </c>
+      <c r="B441" s="20"/>
+      <c r="C441" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D441" s="39"/>
+      <c r="E441" s="9"/>
+      <c r="F441" s="20"/>
+      <c r="G441" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H441" s="39"/>
+      <c r="I441" s="9"/>
+      <c r="J441" s="9"/>
+      <c r="K441" s="20"/>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A442" s="50">
+        <v>44136</v>
+      </c>
+      <c r="B442" s="20"/>
+      <c r="C442" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D442" s="39"/>
+      <c r="E442" s="9"/>
+      <c r="F442" s="20"/>
+      <c r="G442" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H442" s="39"/>
+      <c r="I442" s="9"/>
+      <c r="J442" s="9"/>
+      <c r="K442" s="20"/>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A443" s="50">
+        <v>44166</v>
+      </c>
+      <c r="B443" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C443" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D443" s="39">
+        <v>5</v>
+      </c>
+      <c r="E443" s="9"/>
+      <c r="F443" s="20"/>
+      <c r="G443" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H443" s="39"/>
+      <c r="I443" s="9"/>
+      <c r="J443" s="9"/>
+      <c r="K443" s="20"/>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A444" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="B444" s="20"/>
+      <c r="C444" s="13"/>
+      <c r="D444" s="39"/>
+      <c r="E444" s="9"/>
+      <c r="F444" s="20"/>
+      <c r="G444" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H439" s="42"/>
-      <c r="I439" s="63"/>
-      <c r="J439" s="63"/>
-      <c r="K439" s="15"/>
+      <c r="H444" s="39"/>
+      <c r="I444" s="9"/>
+      <c r="J444" s="9"/>
+      <c r="K444" s="20"/>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A445" s="50">
+        <v>44197</v>
+      </c>
+      <c r="B445" s="20"/>
+      <c r="C445" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D445" s="39"/>
+      <c r="E445" s="9"/>
+      <c r="F445" s="20"/>
+      <c r="G445" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H445" s="39"/>
+      <c r="I445" s="9"/>
+      <c r="J445" s="9"/>
+      <c r="K445" s="20"/>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A446" s="50">
+        <v>44228</v>
+      </c>
+      <c r="B446" s="20"/>
+      <c r="C446" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D446" s="39"/>
+      <c r="E446" s="9"/>
+      <c r="F446" s="20"/>
+      <c r="G446" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H446" s="39"/>
+      <c r="I446" s="9"/>
+      <c r="J446" s="9"/>
+      <c r="K446" s="20"/>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A447" s="50">
+        <v>44256</v>
+      </c>
+      <c r="B447" s="20"/>
+      <c r="C447" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D447" s="39"/>
+      <c r="E447" s="9"/>
+      <c r="F447" s="20"/>
+      <c r="G447" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H447" s="39"/>
+      <c r="I447" s="9"/>
+      <c r="J447" s="9"/>
+      <c r="K447" s="20"/>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A448" s="50">
+        <v>44287</v>
+      </c>
+      <c r="B448" s="20"/>
+      <c r="C448" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D448" s="39"/>
+      <c r="E448" s="9"/>
+      <c r="F448" s="20"/>
+      <c r="G448" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H448" s="39"/>
+      <c r="I448" s="9"/>
+      <c r="J448" s="9"/>
+      <c r="K448" s="20"/>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A449" s="50">
+        <v>44317</v>
+      </c>
+      <c r="B449" s="20"/>
+      <c r="C449" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D449" s="39"/>
+      <c r="E449" s="9"/>
+      <c r="F449" s="20"/>
+      <c r="G449" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H449" s="39"/>
+      <c r="I449" s="9"/>
+      <c r="J449" s="9"/>
+      <c r="K449" s="20"/>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A450" s="50">
+        <v>44348</v>
+      </c>
+      <c r="B450" s="20"/>
+      <c r="C450" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D450" s="39"/>
+      <c r="E450" s="9"/>
+      <c r="F450" s="20"/>
+      <c r="G450" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H450" s="39"/>
+      <c r="I450" s="9"/>
+      <c r="J450" s="9"/>
+      <c r="K450" s="20"/>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A451" s="50">
+        <v>44378</v>
+      </c>
+      <c r="B451" s="20"/>
+      <c r="C451" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D451" s="39"/>
+      <c r="E451" s="9"/>
+      <c r="F451" s="20"/>
+      <c r="G451" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H451" s="39"/>
+      <c r="I451" s="9"/>
+      <c r="J451" s="9"/>
+      <c r="K451" s="20"/>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A452" s="50">
+        <v>44409</v>
+      </c>
+      <c r="B452" s="20"/>
+      <c r="C452" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D452" s="39"/>
+      <c r="E452" s="9"/>
+      <c r="F452" s="20"/>
+      <c r="G452" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H452" s="39"/>
+      <c r="I452" s="9"/>
+      <c r="J452" s="9"/>
+      <c r="K452" s="20"/>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A453" s="50">
+        <v>44440</v>
+      </c>
+      <c r="B453" s="20"/>
+      <c r="C453" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D453" s="39"/>
+      <c r="E453" s="9"/>
+      <c r="F453" s="20"/>
+      <c r="G453" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H453" s="39"/>
+      <c r="I453" s="9"/>
+      <c r="J453" s="9"/>
+      <c r="K453" s="20"/>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A454" s="50">
+        <v>44470</v>
+      </c>
+      <c r="B454" s="20"/>
+      <c r="C454" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D454" s="39"/>
+      <c r="E454" s="9"/>
+      <c r="F454" s="20"/>
+      <c r="G454" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H454" s="39"/>
+      <c r="I454" s="9"/>
+      <c r="J454" s="9"/>
+      <c r="K454" s="20"/>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A455" s="50">
+        <v>44501</v>
+      </c>
+      <c r="B455" s="20"/>
+      <c r="C455" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D455" s="39"/>
+      <c r="E455" s="9"/>
+      <c r="F455" s="20"/>
+      <c r="G455" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H455" s="39"/>
+      <c r="I455" s="9"/>
+      <c r="J455" s="9"/>
+      <c r="K455" s="20"/>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A456" s="50">
+        <v>44531</v>
+      </c>
+      <c r="B456" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C456" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D456" s="39">
+        <v>5</v>
+      </c>
+      <c r="E456" s="9"/>
+      <c r="F456" s="20"/>
+      <c r="G456" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H456" s="39"/>
+      <c r="I456" s="9"/>
+      <c r="J456" s="9"/>
+      <c r="K456" s="20"/>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A457" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="B457" s="20"/>
+      <c r="C457" s="13"/>
+      <c r="D457" s="39"/>
+      <c r="E457" s="9"/>
+      <c r="F457" s="20"/>
+      <c r="G457" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H457" s="39"/>
+      <c r="I457" s="9"/>
+      <c r="J457" s="9"/>
+      <c r="K457" s="20"/>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A458" s="50">
+        <v>44562</v>
+      </c>
+      <c r="B458" s="20"/>
+      <c r="C458" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D458" s="39"/>
+      <c r="E458" s="9"/>
+      <c r="F458" s="20"/>
+      <c r="G458" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H458" s="39"/>
+      <c r="I458" s="9"/>
+      <c r="J458" s="9"/>
+      <c r="K458" s="20"/>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A459" s="50">
+        <v>44593</v>
+      </c>
+      <c r="B459" s="20"/>
+      <c r="C459" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D459" s="39"/>
+      <c r="E459" s="9"/>
+      <c r="F459" s="20"/>
+      <c r="G459" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H459" s="39"/>
+      <c r="I459" s="9"/>
+      <c r="J459" s="9"/>
+      <c r="K459" s="20"/>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A460" s="50">
+        <v>44621</v>
+      </c>
+      <c r="B460" s="20"/>
+      <c r="C460" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D460" s="39"/>
+      <c r="E460" s="9"/>
+      <c r="F460" s="20"/>
+      <c r="G460" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H460" s="39"/>
+      <c r="I460" s="9"/>
+      <c r="J460" s="9"/>
+      <c r="K460" s="20"/>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A461" s="50">
+        <v>44652</v>
+      </c>
+      <c r="B461" s="20"/>
+      <c r="C461" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D461" s="39"/>
+      <c r="E461" s="9"/>
+      <c r="F461" s="20"/>
+      <c r="G461" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H461" s="39"/>
+      <c r="I461" s="9"/>
+      <c r="J461" s="9"/>
+      <c r="K461" s="20"/>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A462" s="50">
+        <v>44682</v>
+      </c>
+      <c r="B462" s="20"/>
+      <c r="C462" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D462" s="39"/>
+      <c r="E462" s="9"/>
+      <c r="F462" s="20"/>
+      <c r="G462" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H462" s="39"/>
+      <c r="I462" s="9"/>
+      <c r="J462" s="9"/>
+      <c r="K462" s="20"/>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A463" s="50">
+        <v>44713</v>
+      </c>
+      <c r="B463" s="20"/>
+      <c r="C463" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D463" s="39"/>
+      <c r="E463" s="9"/>
+      <c r="F463" s="20"/>
+      <c r="G463" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H463" s="39"/>
+      <c r="I463" s="9"/>
+      <c r="J463" s="9"/>
+      <c r="K463" s="20"/>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A464" s="50">
+        <v>44743</v>
+      </c>
+      <c r="B464" s="20"/>
+      <c r="C464" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D464" s="39"/>
+      <c r="E464" s="9"/>
+      <c r="F464" s="20"/>
+      <c r="G464" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H464" s="39"/>
+      <c r="I464" s="9"/>
+      <c r="J464" s="9"/>
+      <c r="K464" s="20"/>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A465" s="50">
+        <v>44774</v>
+      </c>
+      <c r="B465" s="20"/>
+      <c r="C465" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D465" s="39"/>
+      <c r="E465" s="9"/>
+      <c r="F465" s="20"/>
+      <c r="G465" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H465" s="39"/>
+      <c r="I465" s="9"/>
+      <c r="J465" s="9"/>
+      <c r="K465" s="20"/>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A466" s="50">
+        <v>44805</v>
+      </c>
+      <c r="B466" s="20"/>
+      <c r="C466" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D466" s="39"/>
+      <c r="E466" s="9"/>
+      <c r="F466" s="20"/>
+      <c r="G466" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H466" s="39"/>
+      <c r="I466" s="9"/>
+      <c r="J466" s="9"/>
+      <c r="K466" s="20"/>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A467" s="50">
+        <v>44835</v>
+      </c>
+      <c r="B467" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C467" s="13">
+        <v>1.0420000000000003</v>
+      </c>
+      <c r="D467" s="39"/>
+      <c r="E467" s="9"/>
+      <c r="F467" s="20">
+        <v>5</v>
+      </c>
+      <c r="G467" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.0420000000000003</v>
+      </c>
+      <c r="H467" s="39"/>
+      <c r="I467" s="9"/>
+      <c r="J467" s="9"/>
+      <c r="K467" s="20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A468" s="50">
+        <v>44866</v>
+      </c>
+      <c r="B468" s="15"/>
+      <c r="C468" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D468" s="42"/>
+      <c r="E468" s="9"/>
+      <c r="F468" s="15"/>
+      <c r="G468" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H468" s="42"/>
+      <c r="I468" s="9"/>
+      <c r="J468" s="51"/>
+      <c r="K468" s="15"/>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A469" s="50">
+        <v>44896</v>
+      </c>
+      <c r="B469" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C469" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D469" s="39">
+        <v>5</v>
+      </c>
+      <c r="E469" s="9"/>
+      <c r="F469" s="20"/>
+      <c r="G469" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H469" s="39"/>
+      <c r="I469" s="9"/>
+      <c r="J469" s="9"/>
+      <c r="K469" s="20"/>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A470" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="B470" s="20"/>
+      <c r="C470" s="13"/>
+      <c r="D470" s="39"/>
+      <c r="E470" s="9"/>
+      <c r="F470" s="20"/>
+      <c r="G470" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H470" s="39"/>
+      <c r="I470" s="9"/>
+      <c r="J470" s="9"/>
+      <c r="K470" s="20"/>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A471" s="50">
+        <v>44927</v>
+      </c>
+      <c r="B471" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C471" s="13">
+        <v>1.0420000000000003</v>
+      </c>
+      <c r="D471" s="39"/>
+      <c r="E471" s="9"/>
+      <c r="F471" s="20">
+        <v>5</v>
+      </c>
+      <c r="G471" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.0420000000000003</v>
+      </c>
+      <c r="H471" s="39"/>
+      <c r="I471" s="9"/>
+      <c r="J471" s="9"/>
+      <c r="K471" s="20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A472" s="50">
+        <v>44958</v>
+      </c>
+      <c r="B472" s="20"/>
+      <c r="C472" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D472" s="39"/>
+      <c r="E472" s="9"/>
+      <c r="F472" s="20"/>
+      <c r="G472" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H472" s="39"/>
+      <c r="I472" s="9"/>
+      <c r="J472" s="9"/>
+      <c r="K472" s="20"/>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A473" s="50">
+        <v>44986</v>
+      </c>
+      <c r="B473" s="20"/>
+      <c r="C473" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D473" s="39"/>
+      <c r="E473" s="9"/>
+      <c r="F473" s="20"/>
+      <c r="G473" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H473" s="39"/>
+      <c r="I473" s="9"/>
+      <c r="J473" s="9"/>
+      <c r="K473" s="20"/>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A474" s="50">
+        <v>45017</v>
+      </c>
+      <c r="B474" s="20"/>
+      <c r="C474" s="13"/>
+      <c r="D474" s="39"/>
+      <c r="E474" s="9"/>
+      <c r="F474" s="20"/>
+      <c r="G474" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H474" s="39"/>
+      <c r="I474" s="9"/>
+      <c r="J474" s="9"/>
+      <c r="K474" s="20"/>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A475" s="50">
+        <v>45047</v>
+      </c>
+      <c r="B475" s="20"/>
+      <c r="C475" s="13"/>
+      <c r="D475" s="39"/>
+      <c r="E475" s="9"/>
+      <c r="F475" s="20"/>
+      <c r="G475" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H475" s="39"/>
+      <c r="I475" s="9"/>
+      <c r="J475" s="9"/>
+      <c r="K475" s="20"/>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A476" s="50">
+        <v>45078</v>
+      </c>
+      <c r="B476" s="20"/>
+      <c r="C476" s="13"/>
+      <c r="D476" s="39"/>
+      <c r="E476" s="9"/>
+      <c r="F476" s="20"/>
+      <c r="G476" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H476" s="39"/>
+      <c r="I476" s="9"/>
+      <c r="J476" s="9"/>
+      <c r="K476" s="20"/>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A477" s="50">
+        <v>45108</v>
+      </c>
+      <c r="B477" s="20"/>
+      <c r="C477" s="13"/>
+      <c r="D477" s="39"/>
+      <c r="E477" s="9"/>
+      <c r="F477" s="20"/>
+      <c r="G477" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H477" s="39"/>
+      <c r="I477" s="9"/>
+      <c r="J477" s="9"/>
+      <c r="K477" s="20"/>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A478" s="50">
+        <v>45139</v>
+      </c>
+      <c r="B478" s="20"/>
+      <c r="C478" s="13"/>
+      <c r="D478" s="39"/>
+      <c r="E478" s="9"/>
+      <c r="F478" s="20"/>
+      <c r="G478" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H478" s="39"/>
+      <c r="I478" s="9"/>
+      <c r="J478" s="9"/>
+      <c r="K478" s="20"/>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A479" s="50">
+        <v>45170</v>
+      </c>
+      <c r="B479" s="20"/>
+      <c r="C479" s="13"/>
+      <c r="D479" s="39"/>
+      <c r="E479" s="9"/>
+      <c r="F479" s="20"/>
+      <c r="G479" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H479" s="39"/>
+      <c r="I479" s="9"/>
+      <c r="J479" s="9"/>
+      <c r="K479" s="20"/>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A480" s="50">
+        <v>45200</v>
+      </c>
+      <c r="B480" s="20"/>
+      <c r="C480" s="13"/>
+      <c r="D480" s="39"/>
+      <c r="E480" s="9"/>
+      <c r="F480" s="20"/>
+      <c r="G480" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H480" s="39"/>
+      <c r="I480" s="9"/>
+      <c r="J480" s="9"/>
+      <c r="K480" s="20"/>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A481" s="50">
+        <v>45231</v>
+      </c>
+      <c r="B481" s="20"/>
+      <c r="C481" s="13"/>
+      <c r="D481" s="39"/>
+      <c r="E481" s="9"/>
+      <c r="F481" s="20"/>
+      <c r="G481" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H481" s="39"/>
+      <c r="I481" s="9"/>
+      <c r="J481" s="9"/>
+      <c r="K481" s="20"/>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A482" s="50">
+        <v>45261</v>
+      </c>
+      <c r="B482" s="20"/>
+      <c r="C482" s="13"/>
+      <c r="D482" s="39"/>
+      <c r="E482" s="9"/>
+      <c r="F482" s="20"/>
+      <c r="G482" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H482" s="39"/>
+      <c r="I482" s="9"/>
+      <c r="J482" s="9"/>
+      <c r="K482" s="20"/>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A483" s="50">
+        <v>45292</v>
+      </c>
+      <c r="B483" s="20"/>
+      <c r="C483" s="13"/>
+      <c r="D483" s="39"/>
+      <c r="E483" s="9"/>
+      <c r="F483" s="20"/>
+      <c r="G483" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H483" s="39"/>
+      <c r="I483" s="9"/>
+      <c r="J483" s="9"/>
+      <c r="K483" s="20"/>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A484" s="50">
+        <v>45323</v>
+      </c>
+      <c r="B484" s="20"/>
+      <c r="C484" s="13"/>
+      <c r="D484" s="39"/>
+      <c r="E484" s="9"/>
+      <c r="F484" s="20"/>
+      <c r="G484" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H484" s="39"/>
+      <c r="I484" s="9"/>
+      <c r="J484" s="9"/>
+      <c r="K484" s="20"/>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A485" s="50">
+        <v>45352</v>
+      </c>
+      <c r="B485" s="20"/>
+      <c r="C485" s="13"/>
+      <c r="D485" s="39"/>
+      <c r="E485" s="9"/>
+      <c r="F485" s="20"/>
+      <c r="G485" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H485" s="39"/>
+      <c r="I485" s="9"/>
+      <c r="J485" s="9"/>
+      <c r="K485" s="20"/>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A486" s="50">
+        <v>45383</v>
+      </c>
+      <c r="B486" s="20"/>
+      <c r="C486" s="13"/>
+      <c r="D486" s="39"/>
+      <c r="E486" s="9"/>
+      <c r="F486" s="20"/>
+      <c r="G486" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H486" s="39"/>
+      <c r="I486" s="9"/>
+      <c r="J486" s="9"/>
+      <c r="K486" s="20"/>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A487" s="50">
+        <v>45413</v>
+      </c>
+      <c r="B487" s="20"/>
+      <c r="C487" s="13"/>
+      <c r="D487" s="39"/>
+      <c r="E487" s="9"/>
+      <c r="F487" s="20"/>
+      <c r="G487" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H487" s="39"/>
+      <c r="I487" s="9"/>
+      <c r="J487" s="9"/>
+      <c r="K487" s="20"/>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A488" s="50">
+        <v>45444</v>
+      </c>
+      <c r="B488" s="20"/>
+      <c r="C488" s="13"/>
+      <c r="D488" s="39"/>
+      <c r="E488" s="9"/>
+      <c r="F488" s="20"/>
+      <c r="G488" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H488" s="39"/>
+      <c r="I488" s="9"/>
+      <c r="J488" s="9"/>
+      <c r="K488" s="20"/>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A489" s="50">
+        <v>45474</v>
+      </c>
+      <c r="B489" s="20"/>
+      <c r="C489" s="13"/>
+      <c r="D489" s="39"/>
+      <c r="E489" s="9"/>
+      <c r="F489" s="20"/>
+      <c r="G489" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H489" s="39"/>
+      <c r="I489" s="9"/>
+      <c r="J489" s="9"/>
+      <c r="K489" s="20"/>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A490" s="50">
+        <v>45505</v>
+      </c>
+      <c r="B490" s="20"/>
+      <c r="C490" s="13"/>
+      <c r="D490" s="39"/>
+      <c r="E490" s="9"/>
+      <c r="F490" s="20"/>
+      <c r="G490" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H490" s="39"/>
+      <c r="I490" s="9"/>
+      <c r="J490" s="9"/>
+      <c r="K490" s="20"/>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A491" s="50">
+        <v>45536</v>
+      </c>
+      <c r="B491" s="20"/>
+      <c r="C491" s="13"/>
+      <c r="D491" s="39"/>
+      <c r="E491" s="9"/>
+      <c r="F491" s="20"/>
+      <c r="G491" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H491" s="39"/>
+      <c r="I491" s="9"/>
+      <c r="J491" s="9"/>
+      <c r="K491" s="20"/>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A492" s="50">
+        <v>45566</v>
+      </c>
+      <c r="B492" s="20"/>
+      <c r="C492" s="13"/>
+      <c r="D492" s="39"/>
+      <c r="E492" s="9"/>
+      <c r="F492" s="20"/>
+      <c r="G492" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H492" s="39"/>
+      <c r="I492" s="9"/>
+      <c r="J492" s="9"/>
+      <c r="K492" s="20"/>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A493" s="50">
+        <v>45597</v>
+      </c>
+      <c r="B493" s="20"/>
+      <c r="C493" s="13"/>
+      <c r="D493" s="39"/>
+      <c r="E493" s="9"/>
+      <c r="F493" s="20"/>
+      <c r="G493" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H493" s="39"/>
+      <c r="I493" s="9"/>
+      <c r="J493" s="9"/>
+      <c r="K493" s="20"/>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A494" s="50">
+        <v>45627</v>
+      </c>
+      <c r="B494" s="20"/>
+      <c r="C494" s="13"/>
+      <c r="D494" s="39"/>
+      <c r="E494" s="9"/>
+      <c r="F494" s="20"/>
+      <c r="G494" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H494" s="39"/>
+      <c r="I494" s="9"/>
+      <c r="J494" s="9"/>
+      <c r="K494" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13436,10 +14530,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13462,42 +14556,42 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="60" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="J1" s="61" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="J1" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -13526,7 +14620,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -13552,17 +14646,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -13576,14 +14670,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -13610,7 +14704,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -13636,7 +14730,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -13662,7 +14756,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -13688,7 +14782,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -13714,7 +14808,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -13740,7 +14834,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -13766,7 +14860,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -13792,7 +14886,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -13812,7 +14906,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -13832,7 +14926,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -13852,7 +14946,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -13873,7 +14967,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -13894,7 +14988,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13915,7 +15009,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13936,7 +15030,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13957,7 +15051,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13978,7 +15072,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13999,7 +15093,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -14020,7 +15114,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -14041,7 +15135,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -14062,7 +15156,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -14083,7 +15177,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -14104,7 +15198,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -14125,7 +15219,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -14146,7 +15240,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -14167,7 +15261,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -14188,7 +15282,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -14209,7 +15303,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -14230,7 +15324,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -14251,7 +15345,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -14272,7 +15366,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -14281,7 +15375,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -14290,7 +15384,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -14299,7 +15393,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -14308,7 +15402,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -14317,7 +15411,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -14326,7 +15420,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -14335,7 +15429,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -14344,7 +15438,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -14353,7 +15447,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -14362,7 +15456,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -14371,7 +15465,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -14380,7 +15474,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -14389,7 +15483,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -14398,7 +15492,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -14407,7 +15501,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -14416,7 +15510,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -14425,7 +15519,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -14434,7 +15528,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -14443,7 +15537,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -14452,7 +15546,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -14461,7 +15555,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -14470,7 +15564,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -14479,7 +15573,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -14488,7 +15582,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -14497,7 +15591,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -14506,7 +15600,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -14515,7 +15609,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -14524,7 +15618,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -14533,7 +15627,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/ENRIQUEZ, EDGAR.xlsx
+++ b/REGULAR/ENRIQUEZ, EDGAR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAFC038-6BCF-4324-A55B-72572FF50787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B81A99-1EA4-458D-B22E-C911EEFE7A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="256">
   <si>
     <t>PERIOD</t>
   </si>
@@ -797,6 +797,12 @@
   </si>
   <si>
     <t>10/17-21/2023</t>
+  </si>
+  <si>
+    <t>SL(4-0-0)</t>
+  </si>
+  <si>
+    <t>6/26,27,29,30/2023</t>
   </si>
 </sst>
 </file>
@@ -3190,7 +3196,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3588,9 +3594,9 @@
   <dimension ref="A2:K494"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane ySplit="2976" topLeftCell="A452" activePane="bottomLeft"/>
+      <pane ySplit="2976" topLeftCell="A464" activePane="bottomLeft"/>
       <selection activeCell="C7" sqref="C7:F7"/>
-      <selection pane="bottomLeft" activeCell="C468" sqref="C468"/>
+      <selection pane="bottomLeft" activeCell="B478" sqref="B478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3751,7 +3757,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>85.33099999999996</v>
+        <v>89.08099999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3761,7 +3767,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>293.83399999999995</v>
+        <v>293.58399999999995</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14142,13 +14148,15 @@
         <v>45017</v>
       </c>
       <c r="B474" s="20"/>
-      <c r="C474" s="13"/>
+      <c r="C474" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D474" s="39"/>
       <c r="E474" s="9"/>
       <c r="F474" s="20"/>
-      <c r="G474" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G474" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H474" s="39"/>
       <c r="I474" s="9"/>
@@ -14160,13 +14168,15 @@
         <v>45047</v>
       </c>
       <c r="B475" s="20"/>
-      <c r="C475" s="13"/>
+      <c r="C475" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D475" s="39"/>
       <c r="E475" s="9"/>
       <c r="F475" s="20"/>
-      <c r="G475" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G475" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H475" s="39"/>
       <c r="I475" s="9"/>
@@ -14178,13 +14188,15 @@
         <v>45078</v>
       </c>
       <c r="B476" s="20"/>
-      <c r="C476" s="13"/>
+      <c r="C476" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D476" s="39"/>
       <c r="E476" s="9"/>
       <c r="F476" s="20"/>
-      <c r="G476" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G476" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H476" s="39"/>
       <c r="I476" s="9"/>
@@ -14195,7 +14207,9 @@
       <c r="A477" s="50">
         <v>45108</v>
       </c>
-      <c r="B477" s="20"/>
+      <c r="B477" s="20" t="s">
+        <v>254</v>
+      </c>
       <c r="C477" s="13"/>
       <c r="D477" s="39"/>
       <c r="E477" s="9"/>
@@ -14204,10 +14218,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H477" s="39"/>
+      <c r="H477" s="39">
+        <v>4</v>
+      </c>
       <c r="I477" s="9"/>
       <c r="J477" s="9"/>
-      <c r="K477" s="20"/>
+      <c r="K477" s="20" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="50">
